--- a/lock-error-count.xlsx
+++ b/lock-error-count.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,6 +609,40 @@
         </is>
       </c>
       <c r="B20" t="inlineStr">
+        <is>
+          <t>severityLevel</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>45390</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>appName</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>severityLevel</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>45390</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>appName</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>severityLevel</t>
         </is>
@@ -625,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,6 +803,40 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>45390</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>appName</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>severityLevel</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>45390</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>appName</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>severityLevel</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/lock-error-count.xlsx
+++ b/lock-error-count.xlsx
@@ -8,8 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="alert-count" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="account-count" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Alert Hourly Count" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Financial Account Hourly Count" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Alert-error-list" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Financial-Account-error-list" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,13 +23,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,9 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -436,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,208 +450,81 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>45390</v>
-      </c>
-    </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>appName</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>severityLevel</t>
         </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45390</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>appName</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>severityLevel</t>
-        </is>
+          <t>/subscriptions/c6ac49c8-0c7a-4b98-9d4d-6970b017e7f9/resourcegroups/mule/providers/microsoft.insights/components/azure-app-insight</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>45390</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>/subscriptions/c6ac49c8-0c7a-4b98-9d4d-6970b017e7f9/resourcegroups/mule/providers/microsoft.insights/components/azure-app-insight</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>appName</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>severityLevel</t>
-        </is>
+          <t>/subscriptions/c6ac49c8-0c7a-4b98-9d4d-6970b017e7f9/resourcegroups/mule/providers/microsoft.insights/components/azure-app-insight</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>45390</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>/subscriptions/c6ac49c8-0c7a-4b98-9d4d-6970b017e7f9/resourcegroups/mule/providers/microsoft.insights/components/azure-app-insight</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>appName</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>severityLevel</t>
-        </is>
+          <t>/subscriptions/c6ac49c8-0c7a-4b98-9d4d-6970b017e7f9/resourcegroups/mule/providers/microsoft.insights/components/azure-app-insight</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>appName</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>severityLevel</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>appName</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>severityLevel</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>appName</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>severityLevel</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>appName</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>severityLevel</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>appName</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>severityLevel</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>appName</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>severityLevel</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>appName</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>severityLevel</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>appName</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>severityLevel</t>
-        </is>
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -659,7 +538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,174 +546,165 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>45390</v>
-      </c>
-    </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>appName</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>severityLevel</t>
         </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45390</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>/subscriptions/c6ac49c8-0c7a-4b98-9d4d-6970b017e7f9/resourcegroups/mule/providers/microsoft.insights/components/azure-app-insight</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>appName</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>severityLevel</t>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>/subscriptions/c6ac49c8-0c7a-4b98-9d4d-6970b017e7f9/resourcegroups/mule/providers/microsoft.insights/components/azure-app-insight</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>45390</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>/subscriptions/c6ac49c8-0c7a-4b98-9d4d-6970b017e7f9/resourcegroups/mule/providers/microsoft.insights/components/azure-app-insight</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>appName</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>severityLevel</t>
+          <t>/subscriptions/c6ac49c8-0c7a-4b98-9d4d-6970b017e7f9/resourcegroups/mule/providers/microsoft.insights/components/azure-app-insight</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>45390</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>/subscriptions/c6ac49c8-0c7a-4b98-9d4d-6970b017e7f9/resourcegroups/mule/providers/microsoft.insights/components/azure-app-insight</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>/subscriptions/c6ac49c8-0c7a-4b98-9d4d-6970b017e7f9/resourcegroups/mule/providers/microsoft.insights/components/azure-app-insight</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>appName</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>severityLevel</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>appName</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>severityLevel</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>appName</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>severityLevel</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>appName</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>severityLevel</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>appName</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>severityLevel</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>appName</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>severityLevel</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>appName</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>severityLevel</t>
-        </is>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>/subscriptions/c6ac49c8-0c7a-4b98-9d4d-6970b017e7f9/resourcegroups/mule/providers/microsoft.insights/components/azure-app-insight</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
